--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_5.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_0</t>
+          <t>model_6_5_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9720530956983671</v>
+        <v>0.9601772869131042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7739574260152386</v>
+        <v>0.6980275081784502</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6683791448902096</v>
+        <v>0.9387623233696923</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9610692660731669</v>
+        <v>0.9130969906565251</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9246377184469698</v>
+        <v>0.9565148432889021</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1868810777486813</v>
+        <v>0.2662946657788055</v>
       </c>
       <c r="H2" t="n">
-        <v>1.511547733066448</v>
+        <v>2.019291443266176</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6522684974974305</v>
+        <v>0.5440325688367383</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5131900634029746</v>
+        <v>0.1112132731124966</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5827292804502026</v>
+        <v>0.3276227479194965</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4100053674444896</v>
+        <v>1.968846943544193</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4322974412932389</v>
+        <v>0.51603746547979</v>
       </c>
       <c r="N2" t="n">
-        <v>1.016359163493639</v>
+        <v>1.02331085644111</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4507012383481619</v>
+        <v>0.5380062487300818</v>
       </c>
       <c r="P2" t="n">
-        <v>133.3545656245924</v>
+        <v>132.6463036344696</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.5814942410254</v>
+        <v>211.8732322509026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_1</t>
+          <t>model_6_5_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9721227430319173</v>
+        <v>0.9561219737611617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7739203705628022</v>
+        <v>0.6978885414311317</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6696303888273776</v>
+        <v>0.9401462300724287</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9610666478661293</v>
+        <v>0.9554499923604773</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9247946249059321</v>
+        <v>0.9609277660760061</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1864153457085349</v>
+        <v>0.2934125634988449</v>
       </c>
       <c r="H3" t="n">
-        <v>1.511795523047515</v>
+        <v>2.020220714545378</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6498074128270193</v>
+        <v>0.5317380083643471</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5132245769530699</v>
+        <v>0.05701243494567253</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5815160211639278</v>
+        <v>0.2943752216550098</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4032072443269313</v>
+        <v>1.988645925804358</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4317584344382109</v>
+        <v>0.5416756995646426</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01631839432278</v>
+        <v>1.025684698286149</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4501392848554174</v>
+        <v>0.5647359555183875</v>
       </c>
       <c r="P3" t="n">
-        <v>133.3595561067136</v>
+        <v>132.4523511876245</v>
       </c>
       <c r="Q3" t="n">
-        <v>212.5864847231466</v>
+        <v>211.6792798040575</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9721839535004567</v>
+        <v>0.9629009816543332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7738856479478788</v>
+        <v>0.6974068853507372</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6707516983649617</v>
+        <v>0.9370059743668335</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9610636545658172</v>
+        <v>0.8646843104106765</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9249347000087077</v>
+        <v>0.9513676072863094</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1860060310235628</v>
+        <v>0.2480813065027459</v>
       </c>
       <c r="H4" t="n">
-        <v>1.51202771333339</v>
+        <v>2.023441550972798</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6476018974740497</v>
+        <v>0.5596358887596601</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5132640350321246</v>
+        <v>0.1731689254076812</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5804329082038722</v>
+        <v>0.3664026841299883</v>
       </c>
       <c r="L4" t="n">
-        <v>0.397091212772498</v>
+        <v>1.951476993763785</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4312841650507966</v>
+        <v>0.4980776109229824</v>
       </c>
       <c r="N4" t="n">
-        <v>1.016282563804611</v>
+        <v>1.021716498543805</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4496448248383079</v>
+        <v>0.5192818059827667</v>
       </c>
       <c r="P4" t="n">
-        <v>133.3639523618735</v>
+        <v>132.7879974754929</v>
       </c>
       <c r="Q4" t="n">
-        <v>212.5908809783065</v>
+        <v>212.0149260919259</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9722378857903585</v>
+        <v>0.964604326732183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7738533228266657</v>
+        <v>0.6962508128342072</v>
       </c>
       <c r="D5" t="n">
-        <v>0.67175774906299</v>
+        <v>0.9349153354407166</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9610604386917375</v>
+        <v>0.8135984581829934</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9250599075834969</v>
+        <v>0.9457963318789151</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1856453855526541</v>
+        <v>0.2366910301239816</v>
       </c>
       <c r="H5" t="n">
-        <v>1.512243871567786</v>
+        <v>2.031172213214059</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6456230859273758</v>
+        <v>0.5782090242551792</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5133064271079064</v>
+        <v>0.2385455433050746</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5794647565176412</v>
+        <v>0.4083773876021043</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3915851569451446</v>
+        <v>1.936162325589961</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4308658556356655</v>
+        <v>0.4865090236819679</v>
       </c>
       <c r="N5" t="n">
-        <v>1.016250993683693</v>
+        <v>1.020719418498234</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4492087071253548</v>
+        <v>0.5072207200326252</v>
       </c>
       <c r="P5" t="n">
-        <v>133.367833908592</v>
+        <v>132.8819993174549</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.594762525025</v>
+        <v>212.1089279338879</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9722855300596773</v>
+        <v>0.9655322428896018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7738233453689796</v>
+        <v>0.6947247286253737</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6726613585717728</v>
+        <v>0.9325577463737735</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9610571450445323</v>
+        <v>0.762028509104368</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9251720134643795</v>
+        <v>0.9400265445079961</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1853267881043378</v>
+        <v>0.2304860505066605</v>
       </c>
       <c r="H6" t="n">
-        <v>1.512444330965367</v>
+        <v>2.0413771453455</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6438457670177342</v>
+        <v>0.5991537319405076</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5133498443992737</v>
+        <v>0.3045416793952608</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5785979120172529</v>
+        <v>0.4518477056678841</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3866246387115107</v>
+        <v>1.922675523305104</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4304959791964819</v>
+        <v>0.4800896275766229</v>
       </c>
       <c r="N6" t="n">
-        <v>1.016223104355311</v>
+        <v>1.020176248064623</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4488230842804053</v>
+        <v>0.5005280369450938</v>
       </c>
       <c r="P6" t="n">
-        <v>133.3712691800142</v>
+        <v>132.9351298735721</v>
       </c>
       <c r="Q6" t="n">
-        <v>212.5981977964472</v>
+        <v>212.1620584900051</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9723276282365075</v>
+        <v>0.9658769020385765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7737956408601462</v>
+        <v>0.6929543369378899</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6734727128595309</v>
+        <v>0.9300112692716371</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9610537439727604</v>
+        <v>0.7113581154174159</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9252722929316707</v>
+        <v>0.9342217774653483</v>
       </c>
       <c r="G7" t="n">
-        <v>0.18504527740203</v>
+        <v>0.2281813131904579</v>
       </c>
       <c r="H7" t="n">
-        <v>1.512629591143503</v>
+        <v>2.053215762711608</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6422499058586437</v>
+        <v>0.6217765118301275</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5133946777754312</v>
+        <v>0.369386618303557</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5778225137594732</v>
+        <v>0.4955815650668423</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3821626400284944</v>
+        <v>1.910841390932043</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4301688940428283</v>
+        <v>0.4776832770680358</v>
       </c>
       <c r="N7" t="n">
-        <v>1.016198461520093</v>
+        <v>1.019974496367662</v>
       </c>
       <c r="O7" t="n">
-        <v>0.448482074434601</v>
+        <v>0.498019243113524</v>
       </c>
       <c r="P7" t="n">
-        <v>133.3743094822695</v>
+        <v>132.9552294655333</v>
       </c>
       <c r="Q7" t="n">
-        <v>212.6012380987025</v>
+        <v>212.1821580819664</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9723648740474322</v>
+        <v>0.9657890980163311</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7737701217894402</v>
+        <v>0.6910360156339856</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6742005286014099</v>
+        <v>0.9273517747931851</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9610504308699157</v>
+        <v>0.6624517620814101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9253620408439838</v>
+        <v>0.9285001967153498</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1847962144928756</v>
+        <v>0.2287684590915136</v>
       </c>
       <c r="H8" t="n">
-        <v>1.512800237286819</v>
+        <v>2.066043586103874</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6408183575314035</v>
+        <v>0.6454033326459148</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5134383515336037</v>
+        <v>0.4319740438896637</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5771285494143611</v>
+        <v>0.5386886882677893</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3781455712112656</v>
+        <v>1.900532352323152</v>
       </c>
       <c r="M8" t="n">
-        <v>0.429879302238286</v>
+        <v>0.4782974587968387</v>
       </c>
       <c r="N8" t="n">
-        <v>1.016176659094186</v>
+        <v>1.020025893844099</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4481801541074018</v>
+        <v>0.4986595718300533</v>
       </c>
       <c r="P8" t="n">
-        <v>133.3770032086605</v>
+        <v>132.9500897652004</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.6039318250936</v>
+        <v>212.1770183816334</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9723979280559492</v>
+        <v>0.9653869449504</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7737466731280629</v>
+        <v>0.6890434465217488</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6748550205775482</v>
+        <v>0.9246467604030562</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9610471989862686</v>
+        <v>0.6158362494998003</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9254425252596118</v>
+        <v>0.9229463383732249</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1845751821857227</v>
+        <v>0.2314576584951385</v>
       </c>
       <c r="H9" t="n">
-        <v>1.51295703859342</v>
+        <v>2.079367904932338</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6395310304790729</v>
+        <v>0.6694345501639523</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5134809546496115</v>
+        <v>0.4916297885086714</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5765062138820511</v>
+        <v>0.5805321693363118</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3745316431489968</v>
+        <v>1.891607907084432</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4296221388449654</v>
+        <v>0.4811004661140316</v>
       </c>
       <c r="N9" t="n">
-        <v>1.016157310406274</v>
+        <v>1.020261300516839</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4479120427360259</v>
+        <v>0.5015819089717642</v>
       </c>
       <c r="P9" t="n">
-        <v>133.3793968139643</v>
+        <v>132.9267166457063</v>
       </c>
       <c r="Q9" t="n">
-        <v>212.6063254303973</v>
+        <v>212.1536452621394</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9724272592684281</v>
+        <v>0.9647627025100096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7737251949258378</v>
+        <v>0.6870325762205181</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6754422574595105</v>
+        <v>0.9219518008810892</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9610441678989505</v>
+        <v>0.5718120649177191</v>
       </c>
       <c r="F10" t="n">
-        <v>0.925514690981084</v>
+        <v>0.9176185112472385</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1843790442328183</v>
+        <v>0.2356319705684018</v>
       </c>
       <c r="H10" t="n">
-        <v>1.513100663430597</v>
+        <v>2.092814603895874</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6383759881686434</v>
+        <v>0.6933764407176695</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5135209108419569</v>
+        <v>0.5479693065583945</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5759482015968593</v>
+        <v>0.6206727022324539</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3712754632500059</v>
+        <v>1.883934031324071</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4293938101938805</v>
+        <v>0.4854193759713366</v>
       </c>
       <c r="N10" t="n">
-        <v>1.016140140916042</v>
+        <v>1.020626710725848</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4476739936615589</v>
+        <v>0.5060846837630706</v>
       </c>
       <c r="P10" t="n">
-        <v>133.3815232346131</v>
+        <v>132.8909682758065</v>
       </c>
       <c r="Q10" t="n">
-        <v>212.6084518510461</v>
+        <v>212.1178968922396</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9724533040450768</v>
+        <v>0.9639878495863816</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7737055778988228</v>
+        <v>0.6850449015568042</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6759708053345923</v>
+        <v>0.9193110776886456</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9610410717045719</v>
+        <v>0.5305275331703098</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9255792405182925</v>
+        <v>0.9125552927794377</v>
       </c>
       <c r="G11" t="n">
-        <v>0.184204882691443</v>
+        <v>0.2408134156365718</v>
       </c>
       <c r="H11" t="n">
-        <v>1.513231842580575</v>
+        <v>2.106106193524529</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6373363818742173</v>
+        <v>0.7168364983329321</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5135617252841523</v>
+        <v>0.6008027807871084</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5754490804901762</v>
+        <v>0.6588196395600202</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3683474404546869</v>
+        <v>1.877375608203928</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4291909629657212</v>
+        <v>0.4907274351781973</v>
       </c>
       <c r="N11" t="n">
-        <v>1.016124895193126</v>
+        <v>1.021080283168947</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4474625108069451</v>
+        <v>0.5116187180395647</v>
       </c>
       <c r="P11" t="n">
-        <v>133.3834132959165</v>
+        <v>132.8474657086458</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.6103419123496</v>
+        <v>212.0743943250789</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9724765041486125</v>
+        <v>0.9631174598891207</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7736876288043962</v>
+        <v>0.6831109066602457</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6764452549162745</v>
+        <v>0.9167575473761043</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9610383204721719</v>
+        <v>0.4920290622022288</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9256372710665833</v>
+        <v>0.9077801231701222</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1840497434922736</v>
+        <v>0.2466337155499318</v>
       </c>
       <c r="H12" t="n">
-        <v>1.513351868257653</v>
+        <v>2.119038826303044</v>
       </c>
       <c r="I12" t="n">
-        <v>0.636403182073862</v>
+        <v>0.7395219386039754</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5135979923921007</v>
+        <v>0.6500708210832088</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5750003666381964</v>
+        <v>0.6947963798435921</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3657113224855605</v>
+        <v>1.871804888579568</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4290101904294041</v>
+        <v>0.4966223067381607</v>
       </c>
       <c r="N12" t="n">
-        <v>1.016111314644715</v>
+        <v>1.0215897795771</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4472740424095063</v>
+        <v>0.5177645464859021</v>
       </c>
       <c r="P12" t="n">
-        <v>133.3850984256862</v>
+        <v>132.7997019519675</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.6120270421192</v>
+        <v>212.0266305684006</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9724971532570909</v>
+        <v>0.9621937475477444</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7736713192183219</v>
+        <v>0.6812519091053506</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6768718099540749</v>
+        <v>0.9143147638078523</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9610356769494878</v>
+        <v>0.4562955816888166</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9256892378466829</v>
+        <v>0.9033050544513844</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1839116628087983</v>
+        <v>0.2528105842300188</v>
       </c>
       <c r="H13" t="n">
-        <v>1.513460930534831</v>
+        <v>2.131469951512524</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6355641865483427</v>
+        <v>0.7612235101343792</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5136328396563825</v>
+        <v>0.6958003919878391</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5745985401044099</v>
+        <v>0.728512121527634</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3633367138036568</v>
+        <v>1.867097706283135</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4288492308595158</v>
+        <v>0.5028027289405048</v>
       </c>
       <c r="N13" t="n">
-        <v>1.016099227361703</v>
+        <v>1.022130489240345</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4471062304574956</v>
+        <v>0.5242080820566377</v>
       </c>
       <c r="P13" t="n">
-        <v>133.3865994601707</v>
+        <v>132.7502294991748</v>
       </c>
       <c r="Q13" t="n">
-        <v>212.6135280766037</v>
+        <v>211.9771581156078</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9725155927966964</v>
+        <v>0.9612485090245756</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7736564331893909</v>
+        <v>0.6794824352616124</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6772552278930573</v>
+        <v>0.9119987404609533</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9610333147323986</v>
+        <v>0.4232517121478381</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9257359892615417</v>
+        <v>0.8991331937912911</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1837883575225495</v>
+        <v>0.2591313985868719</v>
       </c>
       <c r="H14" t="n">
-        <v>1.513560473478836</v>
+        <v>2.143302431253279</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6348100378296476</v>
+        <v>0.7817989499654148</v>
       </c>
       <c r="J14" t="n">
-        <v>0.513663978713253</v>
+        <v>0.7380879596534169</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5742370407206431</v>
+        <v>0.7599434548094158</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3612005428484658</v>
+        <v>1.863134973150535</v>
       </c>
       <c r="M14" t="n">
-        <v>0.428705443775268</v>
+        <v>0.5090495050453069</v>
       </c>
       <c r="N14" t="n">
-        <v>1.016088433484861</v>
+        <v>1.02268379959537</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4469563220593911</v>
+        <v>0.5307207963528304</v>
       </c>
       <c r="P14" t="n">
-        <v>133.3879408285042</v>
+        <v>132.7008400309599</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.6148694449372</v>
+        <v>211.9277686473929</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.972532017439</v>
+        <v>0.960305310683782</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7736429409620352</v>
+        <v>0.6778114490031018</v>
       </c>
       <c r="D15" t="n">
-        <v>0.677599757635495</v>
+        <v>0.9098185619648996</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9610310525262145</v>
+        <v>0.3927970416649057</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9257778805624468</v>
+        <v>0.8952613014951826</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1836785258638372</v>
+        <v>0.2654385702347881</v>
       </c>
       <c r="H15" t="n">
-        <v>1.51365069606529</v>
+        <v>2.154476324058124</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6341323787078514</v>
+        <v>0.8011675506863583</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5136937994131985</v>
+        <v>0.7770620252416733</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5739131215513911</v>
+        <v>0.7891147879640157</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3592761736682787</v>
+        <v>1.859814050759649</v>
       </c>
       <c r="M15" t="n">
-        <v>0.428577327752924</v>
+        <v>0.5152073080176446</v>
       </c>
       <c r="N15" t="n">
-        <v>1.016078819060098</v>
+        <v>1.023235915697298</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4468227518727392</v>
+        <v>0.5371407497461099</v>
       </c>
       <c r="P15" t="n">
-        <v>133.3891363829005</v>
+        <v>132.6527436779029</v>
       </c>
       <c r="Q15" t="n">
-        <v>212.6160649993335</v>
+        <v>211.879672294336</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9725466846044699</v>
+        <v>0.9593814568798625</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7736306596593319</v>
+        <v>0.67624374522232</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6779094215608634</v>
+        <v>0.9077789565796229</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9610289761374353</v>
+        <v>0.3648036184734123</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9258154999922614</v>
+        <v>0.8916813209938949</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1835804464608034</v>
+        <v>0.2716163848755527</v>
       </c>
       <c r="H16" t="n">
-        <v>1.513732821193017</v>
+        <v>2.164959566458824</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6335232975230676</v>
+        <v>0.8192873066637778</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5137211706436304</v>
+        <v>0.8128863337698682</v>
       </c>
       <c r="K16" t="n">
-        <v>0.573622234083349</v>
+        <v>0.8160868202168229</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3575482411643496</v>
+        <v>1.857043463151178</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4284628880787733</v>
+        <v>0.5211682884400707</v>
       </c>
       <c r="N16" t="n">
-        <v>1.016070233402262</v>
+        <v>1.023776708167885</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4467034402647371</v>
+        <v>0.5433555014460493</v>
       </c>
       <c r="P16" t="n">
-        <v>133.390204614451</v>
+        <v>132.6067291157753</v>
       </c>
       <c r="Q16" t="n">
-        <v>212.6171332308841</v>
+        <v>211.8336577322083</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9725598389959551</v>
+        <v>0.9584892944669186</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7736195571920501</v>
+        <v>0.6747809975989585</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6781891457563098</v>
+        <v>0.9058807174748051</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9610270231964114</v>
+        <v>0.3391378391817534</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9258494125107968</v>
+        <v>0.888382373049509</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1834924829843713</v>
+        <v>0.2775822790389396</v>
       </c>
       <c r="H17" t="n">
-        <v>1.513807063442852</v>
+        <v>2.174740966551576</v>
       </c>
       <c r="I17" t="n">
-        <v>0.632973105103423</v>
+        <v>0.8361511714164337</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5137469145694897</v>
+        <v>0.8457318628668722</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5733600098364564</v>
+        <v>0.840941517141653</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3559907424350228</v>
+        <v>1.854735202123909</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4283602257263988</v>
+        <v>0.5268607776623153</v>
       </c>
       <c r="N17" t="n">
-        <v>1.01606253327066</v>
+        <v>1.02429894958034</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4465964073634817</v>
+        <v>0.5492903317195621</v>
       </c>
       <c r="P17" t="n">
-        <v>133.3911631539788</v>
+        <v>132.5632757774043</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.6180917704119</v>
+        <v>211.7902043938374</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9725715428624802</v>
+        <v>0.9576370379887081</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7736095007899816</v>
+        <v>0.6734223925000411</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6784390733089267</v>
+        <v>0.9041216130213289</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9610252821427138</v>
+        <v>0.3156519960363962</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9258797159045453</v>
+        <v>0.8853505971843399</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1834142191750271</v>
+        <v>0.2832813220330129</v>
       </c>
       <c r="H18" t="n">
-        <v>1.51387431064979</v>
+        <v>2.183825965103837</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6324815200094316</v>
+        <v>0.8517789706298871</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5137698653687008</v>
+        <v>0.8757876400802764</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5731256926890662</v>
+        <v>0.8637833053550819</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3545897269885863</v>
+        <v>1.85282175951843</v>
       </c>
       <c r="M18" t="n">
-        <v>0.428268863186465</v>
+        <v>0.5322417890705434</v>
       </c>
       <c r="N18" t="n">
-        <v>1.016055682226841</v>
+        <v>1.024797831421244</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4465011553310764</v>
+        <v>0.5549004239236678</v>
       </c>
       <c r="P18" t="n">
-        <v>133.3920163824434</v>
+        <v>132.5226296086241</v>
       </c>
       <c r="Q18" t="n">
-        <v>212.6189449988764</v>
+        <v>211.7495582250571</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9725820243717629</v>
+        <v>0.9568300933681242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7736003447898981</v>
+        <v>0.6721655255641197</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6786640216566442</v>
+        <v>0.9024973174711648</v>
       </c>
       <c r="E19" t="n">
-        <v>0.961023686949275</v>
+        <v>0.2942033130444844</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9259069666062455</v>
+        <v>0.8825713305971994</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1833441292741907</v>
+        <v>0.2886773644264955</v>
       </c>
       <c r="H19" t="n">
-        <v>1.513935536864508</v>
+        <v>2.192230640091684</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6320390667724916</v>
+        <v>0.8662091340412221</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5137908934187643</v>
+        <v>0.9032363815853592</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5729149800956279</v>
+        <v>0.884722656281865</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3533264626942058</v>
+        <v>1.85123789911304</v>
       </c>
       <c r="M19" t="n">
-        <v>0.428187026046085</v>
+        <v>0.5372870409999626</v>
       </c>
       <c r="N19" t="n">
-        <v>1.016049546709212</v>
+        <v>1.025270189247927</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4464158342142042</v>
+        <v>0.5601604626728336</v>
       </c>
       <c r="P19" t="n">
-        <v>133.3927808084147</v>
+        <v>132.4848912011206</v>
       </c>
       <c r="Q19" t="n">
-        <v>212.6197094248478</v>
+        <v>211.7118198175536</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9725914454036394</v>
+        <v>0.9560715020476072</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7735920812065189</v>
+        <v>0.6710065660871946</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6788667306965137</v>
+        <v>0.9010027122357045</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9610222875604225</v>
+        <v>0.2746430935514587</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9259315556669057</v>
+        <v>0.8800288862995553</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1832811307906531</v>
+        <v>0.2937500680797853</v>
       </c>
       <c r="H20" t="n">
-        <v>1.513990795484615</v>
+        <v>2.1999806074504</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6316403562606903</v>
+        <v>0.8794871349450302</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5138093403469747</v>
+        <v>0.9282683804660928</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5727248483038325</v>
+        <v>0.9038777577055616</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3521883546702274</v>
+        <v>1.849923691516236</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4281134555122662</v>
+        <v>0.5419871475226929</v>
       </c>
       <c r="N20" t="n">
-        <v>1.016044031958845</v>
+        <v>1.02571424270384</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4463391316304486</v>
+        <v>0.5650606624607983</v>
       </c>
       <c r="P20" t="n">
-        <v>133.3934681422242</v>
+        <v>132.4500519635257</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.6203967586572</v>
+        <v>211.6769805799587</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9725998662706112</v>
+        <v>0.9553624855771148</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7735845865384685</v>
+        <v>0.6699409846491096</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6790495099896294</v>
+        <v>0.8996304877869802</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9610208868110037</v>
+        <v>0.2568319984779743</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9259536165141802</v>
+        <v>0.8777071611593374</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1832248204144379</v>
+        <v>0.2984912644826883</v>
       </c>
       <c r="H21" t="n">
-        <v>1.514040912364377</v>
+        <v>2.207106155433426</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6312808457743704</v>
+        <v>0.8916779108356134</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5138278052103492</v>
+        <v>0.9510619545414282</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5725542656012723</v>
+        <v>0.9213699326885209</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3511697322934139</v>
+        <v>1.848848888797293</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4280476847436952</v>
+        <v>0.5463435407165425</v>
       </c>
       <c r="N21" t="n">
-        <v>1.016039102670862</v>
+        <v>1.026129276735347</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4462705608640953</v>
+        <v>0.5696025163318871</v>
       </c>
       <c r="P21" t="n">
-        <v>133.394082706615</v>
+        <v>132.4180292225846</v>
       </c>
       <c r="Q21" t="n">
-        <v>212.621011323048</v>
+        <v>211.6449578390177</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9726074016548498</v>
+        <v>0.954703148943747</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7735778376506731</v>
+        <v>0.668963740283205</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6792131037458935</v>
+        <v>0.8983739910588713</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9610196978102848</v>
+        <v>0.2406343391946433</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9259734022192806</v>
+        <v>0.875590695207904</v>
       </c>
       <c r="G22" t="n">
-        <v>0.183174431265337</v>
+        <v>0.3029002515859849</v>
       </c>
       <c r="H22" t="n">
-        <v>1.514086042208141</v>
+        <v>2.213640993008026</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6309590715193618</v>
+        <v>0.9028405672318504</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5138434787744653</v>
+        <v>0.9717907500028194</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5724012751469135</v>
+        <v>0.9373156586173348</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3502480416008457</v>
+        <v>1.847959484163042</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4279888214256735</v>
+        <v>0.5503637447960984</v>
       </c>
       <c r="N22" t="n">
-        <v>1.016034691714234</v>
+        <v>1.026515229886587</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4462091916127616</v>
+        <v>0.5737938688220794</v>
       </c>
       <c r="P22" t="n">
-        <v>133.394632807623</v>
+        <v>132.3887034607168</v>
       </c>
       <c r="Q22" t="n">
-        <v>212.621561424056</v>
+        <v>211.6156320771498</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9726141670272904</v>
+        <v>0.9540926291965433</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7735717351626739</v>
+        <v>0.6680693592351123</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6793606686522813</v>
+        <v>0.8972259423798292</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9610185866006151</v>
+        <v>0.2259207444755001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9259912446283678</v>
+        <v>0.8736642090526088</v>
       </c>
       <c r="G23" t="n">
-        <v>0.183129191188675</v>
+        <v>0.3069827999467207</v>
       </c>
       <c r="H23" t="n">
-        <v>1.514126849573492</v>
+        <v>2.219621723194868</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6306688245753297</v>
+        <v>0.9130397763850561</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5138581268867234</v>
+        <v>0.990620328406706</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5722633109824184</v>
+        <v>0.9518300523958811</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3494192992213734</v>
+        <v>1.847229201271863</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4279359662247087</v>
+        <v>0.5540602854804888</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01603073149622</v>
+        <v>1.026872607299584</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4461540862564664</v>
+        <v>0.5776477788962984</v>
       </c>
       <c r="P23" t="n">
-        <v>133.3951268248711</v>
+        <v>132.3619271183933</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.6220554413042</v>
+        <v>211.5888557348263</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9726202719210233</v>
+        <v>0.9535291162758239</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7735662438418131</v>
+        <v>0.6672524429180728</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6794937338743692</v>
+        <v>0.8961783466611088</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9610176472195843</v>
+        <v>0.2125665852411293</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9260073467239963</v>
+        <v>0.8719124042530544</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1830883677361724</v>
+        <v>0.3107510134423099</v>
       </c>
       <c r="H24" t="n">
-        <v>1.514163570061373</v>
+        <v>2.225084446368465</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6304070972106508</v>
+        <v>0.9223465662784496</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5138705099312273</v>
+        <v>1.007710182594032</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5721388035709392</v>
+        <v>0.9650283744362411</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3486737703011956</v>
+        <v>1.846628677981368</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4278882654808056</v>
+        <v>0.5574504582851376</v>
       </c>
       <c r="N24" t="n">
-        <v>1.016027157899889</v>
+        <v>1.027202468521469</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4461043547931412</v>
+        <v>0.5811822783758663</v>
       </c>
       <c r="P24" t="n">
-        <v>133.3955727177747</v>
+        <v>132.3375265746362</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.6225013342078</v>
+        <v>211.5644551910692</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9726256788942875</v>
+        <v>0.9530107406373389</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7735612231692703</v>
+        <v>0.6665075290038629</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6796130780471562</v>
+        <v>0.8952244815591429</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9610166271270856</v>
+        <v>0.2004575364914142</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9260215924542476</v>
+        <v>0.8703215855005021</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1830522112810583</v>
+        <v>0.3142173937237593</v>
       </c>
       <c r="H25" t="n">
-        <v>1.514197143321785</v>
+        <v>2.2300656891428</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6301723579200743</v>
+        <v>0.930820657888408</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5138839569249336</v>
+        <v>1.023206618861412</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5720286502692105</v>
+        <v>0.9770138069509646</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3480048039712899</v>
+        <v>1.846137297890798</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4278460135154449</v>
+        <v>0.5605509733501132</v>
       </c>
       <c r="N25" t="n">
-        <v>1.016023992842368</v>
+        <v>1.027505907919606</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4460603040741415</v>
+        <v>0.584414788786109</v>
       </c>
       <c r="P25" t="n">
-        <v>133.3959677185728</v>
+        <v>132.315340391857</v>
       </c>
       <c r="Q25" t="n">
-        <v>212.6228963350059</v>
+        <v>211.54226900829</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9726305848831911</v>
+        <v>0.9525350234190779</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7735567192389627</v>
+        <v>0.6658291984109541</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6797204908950598</v>
+        <v>0.8943564961260667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9610158657275737</v>
+        <v>0.1894887482677472</v>
       </c>
       <c r="F26" t="n">
-        <v>0.926034668664195</v>
+        <v>0.868878286293945</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1830194049106699</v>
+        <v>0.3173985169527465</v>
       </c>
       <c r="H26" t="n">
-        <v>1.51422726112449</v>
+        <v>2.234601688941006</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6299610864760911</v>
+        <v>0.9385317986575146</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5138939937936066</v>
+        <v>1.037243817914098</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5719275401348487</v>
+        <v>0.9878878082858061</v>
       </c>
       <c r="L26" t="n">
-        <v>0.347401813816457</v>
+        <v>1.845732082648182</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4278076728048129</v>
+        <v>0.5633813246396676</v>
       </c>
       <c r="N26" t="n">
-        <v>1.016021121043986</v>
+        <v>1.027784376535174</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4460203311200816</v>
+        <v>0.5873656339896945</v>
       </c>
       <c r="P26" t="n">
-        <v>133.3963261879982</v>
+        <v>132.2951942867747</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.6232548044312</v>
+        <v>211.5221229032078</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1376 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_1</t>
+          <t>model_6_5_13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9601772869131042</v>
+        <v>0.9596677967839349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6980275081784502</v>
+        <v>0.826112947306757</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9387623233696923</v>
+        <v>0.90403039483661</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9130969906565251</v>
+        <v>0.9140750147224158</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9565148432889021</v>
+        <v>0.9195427403725972</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2662946657788055</v>
+        <v>0.2697016286185473</v>
       </c>
       <c r="H2" t="n">
-        <v>2.019291443266176</v>
+        <v>1.162783522035971</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5440325688367383</v>
+        <v>0.4730753043161181</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1112132731124966</v>
+        <v>1.037639216986118</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3276227479194965</v>
+        <v>0.7553572606511181</v>
       </c>
       <c r="L2" t="n">
-        <v>1.968846943544193</v>
+        <v>1.300573272754894</v>
       </c>
       <c r="M2" t="n">
-        <v>0.51603746547979</v>
+        <v>0.519328054911871</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02331085644111</v>
+        <v>1.023609094565502</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5380062487300818</v>
+        <v>0.5414369253667457</v>
       </c>
       <c r="P2" t="n">
-        <v>132.6463036344696</v>
+        <v>132.6208780204491</v>
       </c>
       <c r="Q2" t="n">
-        <v>211.8732322509026</v>
+        <v>211.8478066368822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_0</t>
+          <t>model_6_5_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9561219737611617</v>
+        <v>0.9603656717743317</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6978885414311317</v>
+        <v>0.8260731093329361</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9401462300724287</v>
+        <v>0.9094736129107824</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9554499923604773</v>
+        <v>0.917668860637504</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9609277660760061</v>
+        <v>0.9232831184717684</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2934125634988449</v>
+        <v>0.2650349353443445</v>
       </c>
       <c r="H3" t="n">
-        <v>2.020220714545378</v>
+        <v>1.163049918750349</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5317380083643471</v>
+        <v>0.4462433501519419</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05701243494567253</v>
+        <v>0.9942395533230554</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2943752216550098</v>
+        <v>0.7202414517374987</v>
       </c>
       <c r="L3" t="n">
-        <v>1.988645925804358</v>
+        <v>1.361121360744514</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5416756995646426</v>
+        <v>0.5148154381371488</v>
       </c>
       <c r="N3" t="n">
-        <v>1.025684698286149</v>
+        <v>1.023200582376001</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5647359555183875</v>
+        <v>0.5367321971535189</v>
       </c>
       <c r="P3" t="n">
-        <v>132.4523511876245</v>
+        <v>132.6557872603937</v>
       </c>
       <c r="Q3" t="n">
-        <v>211.6792798040575</v>
+        <v>211.8827158768267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_2</t>
+          <t>model_6_5_14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9629009816543332</v>
+        <v>0.9589262461090966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6974068853507372</v>
+        <v>0.8260293717816769</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9370059743668335</v>
+        <v>0.8989689163796076</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8646843104106765</v>
+        <v>0.9108208304821948</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9513676072863094</v>
+        <v>0.9161210326154561</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2480813065027459</v>
+        <v>0.2746603813957175</v>
       </c>
       <c r="H4" t="n">
-        <v>2.023441550972798</v>
+        <v>1.163342391957011</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5596358887596601</v>
+        <v>0.4980255003418205</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1731689254076812</v>
+        <v>1.076937090311823</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3664026841299883</v>
+        <v>0.787481295326822</v>
       </c>
       <c r="L4" t="n">
-        <v>1.951476993763785</v>
+        <v>1.245950145721968</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4980776109229824</v>
+        <v>0.5240805104139225</v>
       </c>
       <c r="N4" t="n">
-        <v>1.021716498543805</v>
+        <v>1.024043173009309</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5192818059827667</v>
+        <v>0.5463917027384586</v>
       </c>
       <c r="P4" t="n">
-        <v>132.7879974754929</v>
+        <v>132.5844398425412</v>
       </c>
       <c r="Q4" t="n">
-        <v>212.0149260919259</v>
+        <v>211.8113684589743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_3</t>
+          <t>model_6_5_11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.964604326732183</v>
+        <v>0.9609833334982226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6962508128342072</v>
+        <v>0.8258612323245982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9349153354407166</v>
+        <v>0.9152968646894903</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8135984581829934</v>
+        <v>0.9216282339406086</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9457963318789151</v>
+        <v>0.9273583544957335</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2366910301239816</v>
+        <v>0.2609046285526154</v>
       </c>
       <c r="H5" t="n">
-        <v>2.031172213214059</v>
+        <v>1.164466741280708</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5782090242551792</v>
+        <v>0.4175380470236083</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2385455433050746</v>
+        <v>0.9464257422328725</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4083773876021043</v>
+        <v>0.6819818946282403</v>
       </c>
       <c r="L5" t="n">
-        <v>1.936162325589961</v>
+        <v>1.428213673021439</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4865090236819679</v>
+        <v>0.5107882423789877</v>
       </c>
       <c r="N5" t="n">
-        <v>1.020719418498234</v>
+        <v>1.022839024293723</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5072207200326252</v>
+        <v>0.5325335553344884</v>
       </c>
       <c r="P5" t="n">
-        <v>132.8819993174549</v>
+        <v>132.6872006925631</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.1089279338879</v>
+        <v>211.9141293089961</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_4</t>
+          <t>model_6_5_15</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9655322428896018</v>
+        <v>0.9581676967545596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6947247286253737</v>
+        <v>0.8258592624406632</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9325577463737735</v>
+        <v>0.8942805534075855</v>
       </c>
       <c r="E6" t="n">
-        <v>0.762028509104368</v>
+        <v>0.9078790352084347</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9400265445079961</v>
+        <v>0.9129981907642921</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2304860505066605</v>
+        <v>0.279732804422305</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0413771453455</v>
+        <v>1.164479913903652</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5991537319405076</v>
+        <v>0.5211364502718292</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3045416793952608</v>
+        <v>1.112462521413575</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4518477056678841</v>
+        <v>0.8167994858427022</v>
       </c>
       <c r="L6" t="n">
-        <v>1.922675523305104</v>
+        <v>1.196694202006718</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4800896275766229</v>
+        <v>0.5288977258622928</v>
       </c>
       <c r="N6" t="n">
-        <v>1.020176248064623</v>
+        <v>1.02448720189977</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5005280369450938</v>
+        <v>0.5514139970214768</v>
       </c>
       <c r="P6" t="n">
-        <v>132.9351298735721</v>
+        <v>132.5478408026773</v>
       </c>
       <c r="Q6" t="n">
-        <v>212.1620584900051</v>
+        <v>211.7747694191103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_5</t>
+          <t>model_6_5_16</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9658769020385765</v>
+        <v>0.957411772665861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6929543369378899</v>
+        <v>0.8256306852391285</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9300112692716371</v>
+        <v>0.8899544359234475</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7113581154174159</v>
+        <v>0.9052225729227866</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9342217774653483</v>
+        <v>0.9101539601646337</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2281813131904579</v>
+        <v>0.2847876722841428</v>
       </c>
       <c r="H7" t="n">
-        <v>2.053215762711608</v>
+        <v>1.166008410702815</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6217765118301275</v>
+        <v>0.5424617369793397</v>
       </c>
       <c r="J7" t="n">
-        <v>0.369386618303557</v>
+        <v>1.14454224114967</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4955815650668423</v>
+        <v>0.8435019890645048</v>
       </c>
       <c r="L7" t="n">
-        <v>1.910841390932043</v>
+        <v>1.15228811550318</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4776832770680358</v>
+        <v>0.5336550124229537</v>
       </c>
       <c r="N7" t="n">
-        <v>1.019974496367662</v>
+        <v>1.024929694049252</v>
       </c>
       <c r="O7" t="n">
-        <v>0.498019243113524</v>
+        <v>0.5563738111199656</v>
       </c>
       <c r="P7" t="n">
-        <v>132.9552294655333</v>
+        <v>132.5120227718006</v>
       </c>
       <c r="Q7" t="n">
-        <v>212.1821580819664</v>
+        <v>211.7389513882337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_6</t>
+          <t>model_6_5_10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9657890980163311</v>
+        <v>0.9614723991109351</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6910360156339856</v>
+        <v>0.8254137491955147</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9273517747931851</v>
+        <v>0.9214929257559084</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6624517620814101</v>
+        <v>0.9259758480076755</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9285001967153498</v>
+        <v>0.9317811598389455</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2287684590915136</v>
+        <v>0.2576342445484669</v>
       </c>
       <c r="H8" t="n">
-        <v>2.066043586103874</v>
+        <v>1.16745906302536</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6454033326459148</v>
+        <v>0.3869950071771226</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4319740438896637</v>
+        <v>0.8939234945835368</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5386886882677893</v>
+        <v>0.6404592508803297</v>
       </c>
       <c r="L8" t="n">
-        <v>1.900532352323152</v>
+        <v>1.502501292654418</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4782974587968387</v>
+        <v>0.5075768361031332</v>
       </c>
       <c r="N8" t="n">
-        <v>1.020025893844099</v>
+        <v>1.022552741983843</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4986595718300533</v>
+        <v>0.5291854328449433</v>
       </c>
       <c r="P8" t="n">
-        <v>132.9500897652004</v>
+        <v>132.712428713351</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.1770183816334</v>
+        <v>211.9393573297841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_7</t>
+          <t>model_6_5_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9653869449504</v>
+        <v>0.9566725384119518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6890434465217488</v>
+        <v>0.8253647778631549</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9246467604030562</v>
+        <v>0.8859753209653753</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6158362494998003</v>
+        <v>0.9028256987390784</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9229463383732249</v>
+        <v>0.9075677813503755</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2314576584951385</v>
+        <v>0.2897309351438944</v>
       </c>
       <c r="H9" t="n">
-        <v>2.079367904932338</v>
+        <v>1.167786534550342</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6694345501639523</v>
+        <v>0.5620764995543648</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4916297885086714</v>
+        <v>1.173487147490505</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5805321693363118</v>
+        <v>0.8677818235224348</v>
       </c>
       <c r="L9" t="n">
-        <v>1.891607907084432</v>
+        <v>1.112274036529862</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4811004661140316</v>
+        <v>0.5382666022928549</v>
       </c>
       <c r="N9" t="n">
-        <v>1.020261300516839</v>
+        <v>1.025362416539345</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5015819089717642</v>
+        <v>0.5611817259179357</v>
       </c>
       <c r="P9" t="n">
-        <v>132.9267166457063</v>
+        <v>132.4776051930644</v>
       </c>
       <c r="Q9" t="n">
-        <v>212.1536452621394</v>
+        <v>211.7045338094975</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_8</t>
+          <t>model_6_5_18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9647627025100096</v>
+        <v>0.9559598793276306</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6870325762205181</v>
+        <v>0.825077351278402</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9219518008810892</v>
+        <v>0.882325201934808</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5718120649177191</v>
+        <v>0.9006645959666333</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9176185112472385</v>
+        <v>0.9052196094287916</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2356319705684018</v>
+        <v>0.2944964897222438</v>
       </c>
       <c r="H10" t="n">
-        <v>2.092814603895874</v>
+        <v>1.169708557446062</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6933764407176695</v>
+        <v>0.5800695002365684</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5479693065583945</v>
+        <v>1.19958485331358</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6206727022324539</v>
+        <v>0.8898271767750743</v>
       </c>
       <c r="L10" t="n">
-        <v>1.883934031324071</v>
+        <v>1.076216637067507</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4854193759713366</v>
+        <v>0.5426753078243416</v>
       </c>
       <c r="N10" t="n">
-        <v>1.020626710725848</v>
+        <v>1.025779582832606</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5060846837630706</v>
+        <v>0.5657781191711763</v>
       </c>
       <c r="P10" t="n">
-        <v>132.8909682758065</v>
+        <v>132.4449763908212</v>
       </c>
       <c r="Q10" t="n">
-        <v>212.1178968922396</v>
+        <v>211.6719050072543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_9</t>
+          <t>model_6_5_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9639878495863816</v>
+        <v>0.9552802302406662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6850449015568042</v>
+        <v>0.8247801921900914</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9193110776886456</v>
+        <v>0.8789848769866584</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5305275331703098</v>
+        <v>0.8987165424395485</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9125552927794377</v>
+        <v>0.9030897896582577</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2408134156365718</v>
+        <v>0.2990413062962706</v>
       </c>
       <c r="H11" t="n">
-        <v>2.106106193524529</v>
+        <v>1.171695661637888</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7168364983329321</v>
+        <v>0.5965353931478734</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6008027807871084</v>
+        <v>1.223109753899378</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6588196395600202</v>
+        <v>0.9098225735236256</v>
       </c>
       <c r="L11" t="n">
-        <v>1.877375608203928</v>
+        <v>1.043737982029603</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4907274351781973</v>
+        <v>0.546846693595445</v>
       </c>
       <c r="N11" t="n">
-        <v>1.021080283168947</v>
+        <v>1.026177426200586</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5116187180395647</v>
+        <v>0.5701270894705146</v>
       </c>
       <c r="P11" t="n">
-        <v>132.8474657086458</v>
+        <v>132.4143471339699</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.0743943250789</v>
+        <v>211.641275750403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_10</t>
+          <t>model_6_5_9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9631174598891207</v>
+        <v>0.9617683041372435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6831109066602457</v>
+        <v>0.8246478951826903</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9167575473761043</v>
+        <v>0.9280444009926104</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4920290622022288</v>
+        <v>0.9307266580318504</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9077801231701222</v>
+        <v>0.9365565861327833</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2466337155499318</v>
+        <v>0.2556555262750252</v>
       </c>
       <c r="H12" t="n">
-        <v>2.119038826303044</v>
+        <v>1.17258033233555</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7395219386039754</v>
+        <v>0.3546999785996299</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6500708210832088</v>
+        <v>0.8365522098796838</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6947963798435921</v>
+        <v>0.595626094239657</v>
       </c>
       <c r="L12" t="n">
-        <v>1.871804888579568</v>
+        <v>1.584719807174023</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4966223067381607</v>
+        <v>0.5056238980457958</v>
       </c>
       <c r="N12" t="n">
-        <v>1.0215897795771</v>
+        <v>1.022379529285516</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5177645464859021</v>
+        <v>0.527149354171366</v>
       </c>
       <c r="P12" t="n">
-        <v>132.7997019519675</v>
+        <v>132.7278486822481</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.0266305684006</v>
+        <v>211.9547772986811</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_11</t>
+          <t>model_6_5_20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9621937475477444</v>
+        <v>0.9546377726482281</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6812519091053506</v>
+        <v>0.8244818902698304</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9143147638078523</v>
+        <v>0.8759347348559586</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4562955816888166</v>
+        <v>0.8969611156414683</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9033050544513844</v>
+        <v>0.9011600388230219</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2528105842300188</v>
+        <v>0.3033374231751492</v>
       </c>
       <c r="H13" t="n">
-        <v>2.131469951512524</v>
+        <v>1.173690407952227</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7612235101343792</v>
+        <v>0.6115708506162203</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6958003919878391</v>
+        <v>1.244308473717041</v>
       </c>
       <c r="K13" t="n">
-        <v>0.728512121527634</v>
+        <v>0.9279396621666308</v>
       </c>
       <c r="L13" t="n">
-        <v>1.867097706283135</v>
+        <v>1.014481189901198</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5028027289405048</v>
+        <v>0.5507607676434018</v>
       </c>
       <c r="N13" t="n">
-        <v>1.022130489240345</v>
+        <v>1.026553498937623</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5242080820566377</v>
+        <v>0.574207793753943</v>
       </c>
       <c r="P13" t="n">
-        <v>132.7502294991748</v>
+        <v>132.3858189704705</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.9771581156078</v>
+        <v>211.6127475869035</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_12</t>
+          <t>model_6_5_21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9612485090245756</v>
+        <v>0.9540346126475797</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6794824352616124</v>
+        <v>0.8241886364104276</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9119987404609533</v>
+        <v>0.8731537909926606</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4232517121478381</v>
+        <v>0.89537956246859</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8991331937912911</v>
+        <v>0.8994127868548432</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2591313985868719</v>
+        <v>0.3073707568767819</v>
       </c>
       <c r="H14" t="n">
-        <v>2.143302431253279</v>
+        <v>1.175651397860362</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7817989499654148</v>
+        <v>0.6252793144801271</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7380879596534169</v>
+        <v>1.263407477233025</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7599434548094158</v>
+        <v>0.9443433958565761</v>
       </c>
       <c r="L14" t="n">
-        <v>1.863134973150535</v>
+        <v>0.9881376100444758</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5090495050453069</v>
+        <v>0.5544102784732458</v>
       </c>
       <c r="N14" t="n">
-        <v>1.02268379959537</v>
+        <v>1.026906568206295</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5307207963528304</v>
+        <v>0.5780126718153424</v>
       </c>
       <c r="P14" t="n">
-        <v>132.7008400309599</v>
+        <v>132.3594011658546</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.9277686473929</v>
+        <v>211.5863297822876</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_13</t>
+          <t>model_6_5_22</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.960305310683782</v>
+        <v>0.9534717619237203</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6778114490031018</v>
+        <v>0.8239047739260317</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9098185619648996</v>
+        <v>0.8706226325984202</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3927970416649057</v>
+        <v>0.8939551915604065</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8952613014951826</v>
+        <v>0.8978322023203708</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2654385702347881</v>
+        <v>0.3111345422589187</v>
       </c>
       <c r="H15" t="n">
-        <v>2.154476324058124</v>
+        <v>1.177549587600585</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8011675506863583</v>
+        <v>0.6377564787405084</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7770620252416733</v>
+        <v>1.280608331083516</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7891147879640157</v>
+        <v>0.9591824049120123</v>
       </c>
       <c r="L15" t="n">
-        <v>1.859814050759649</v>
+        <v>0.9644124830352712</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5152073080176446</v>
+        <v>0.5577943548109094</v>
       </c>
       <c r="N15" t="n">
-        <v>1.023235915697298</v>
+        <v>1.027236041800749</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5371407497461099</v>
+        <v>0.5815408152887043</v>
       </c>
       <c r="P15" t="n">
-        <v>132.6527436779029</v>
+        <v>132.3350596971748</v>
       </c>
       <c r="Q15" t="n">
-        <v>211.879672294336</v>
+        <v>211.5619883136078</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_14</t>
+          <t>model_6_5_23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9593814568798625</v>
+        <v>0.9529489552720103</v>
       </c>
       <c r="C16" t="n">
-        <v>0.67624374522232</v>
+        <v>0.8236332293162362</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9077789565796229</v>
+        <v>0.8683216509895761</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3648036184734123</v>
+        <v>0.8926722891434349</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8916813209938949</v>
+        <v>0.8964030310918576</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2716163848755527</v>
+        <v>0.3146305527462073</v>
       </c>
       <c r="H16" t="n">
-        <v>2.164959566458824</v>
+        <v>1.179365407656635</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8192873066637778</v>
+        <v>0.6490990030009389</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8128863337698682</v>
+        <v>1.296100796460328</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8160868202168229</v>
+        <v>0.9725998997306333</v>
       </c>
       <c r="L16" t="n">
-        <v>1.857043463151178</v>
+        <v>0.9430465372427613</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5211682884400707</v>
+        <v>0.5609193816817237</v>
       </c>
       <c r="N16" t="n">
-        <v>1.023776708167885</v>
+        <v>1.027542074962726</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5433555014460493</v>
+        <v>0.5847988810231065</v>
       </c>
       <c r="P16" t="n">
-        <v>132.6067291157753</v>
+        <v>132.3127123538124</v>
       </c>
       <c r="Q16" t="n">
-        <v>211.8336577322083</v>
+        <v>211.5396409702455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_15</t>
+          <t>model_6_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9584892944669186</v>
+        <v>0.96178599673345</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6747809975989585</v>
+        <v>0.8234563677520166</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9058807174748051</v>
+        <v>0.9349234154387889</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3391378391817534</v>
+        <v>0.9358827548457044</v>
       </c>
       <c r="F17" t="n">
-        <v>0.888382373049509</v>
+        <v>0.9416786600671093</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2775822790389396</v>
+        <v>0.2555372158027253</v>
       </c>
       <c r="H17" t="n">
-        <v>2.174740966551576</v>
+        <v>1.180548081750945</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8361511714164337</v>
+        <v>0.3207903689166441</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8457318628668722</v>
+        <v>0.7742866390058789</v>
       </c>
       <c r="K17" t="n">
-        <v>0.840941517141653</v>
+        <v>0.5475385039612615</v>
       </c>
       <c r="L17" t="n">
-        <v>1.854735202123909</v>
+        <v>1.675636428480754</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5268607776623153</v>
+        <v>0.5055068899656316</v>
       </c>
       <c r="N17" t="n">
-        <v>1.02429894958034</v>
+        <v>1.022369172643834</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5492903317195621</v>
+        <v>0.5270273648149892</v>
       </c>
       <c r="P17" t="n">
-        <v>132.5632757774043</v>
+        <v>132.728774442453</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.7902043938374</v>
+        <v>211.955703058886</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_16</t>
+          <t>model_6_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9576370379887081</v>
+        <v>0.9614131919761882</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6734223925000411</v>
+        <v>0.8217008393556777</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9041216130213289</v>
+        <v>0.9420896523725745</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3156519960363962</v>
+        <v>0.9414241667332316</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8853505971843399</v>
+        <v>0.9471239525473264</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2832813220330129</v>
+        <v>0.2580301629311432</v>
       </c>
       <c r="H18" t="n">
-        <v>2.183825965103837</v>
+        <v>1.192287308220727</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8517789706298871</v>
+        <v>0.2854649165249184</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8757876400802764</v>
+        <v>0.7073679625185254</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8637833053550819</v>
+        <v>0.496416439521722</v>
       </c>
       <c r="L18" t="n">
-        <v>1.85282175951843</v>
+        <v>1.776112248291723</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5322417890705434</v>
+        <v>0.5079666947065951</v>
       </c>
       <c r="N18" t="n">
-        <v>1.024797831421244</v>
+        <v>1.022587399818817</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5549004239236678</v>
+        <v>0.5295918885362733</v>
       </c>
       <c r="P18" t="n">
-        <v>132.5226296086241</v>
+        <v>132.7093575806164</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.7495582250571</v>
+        <v>211.9362861970494</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_17</t>
+          <t>model_6_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9568300933681242</v>
+        <v>0.9605030581336751</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6721655255641197</v>
+        <v>0.8192043304336767</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9024973174711648</v>
+        <v>0.9494910753923967</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2942033130444844</v>
+        <v>0.9472981737140042</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8825713305971994</v>
+        <v>0.9528448957844955</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2886773644264955</v>
+        <v>0.2641162321268092</v>
       </c>
       <c r="H19" t="n">
-        <v>2.192230640091684</v>
+        <v>1.208981474877515</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8662091340412221</v>
+        <v>0.2489801311440315</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9032363815853592</v>
+        <v>0.6364328324814421</v>
       </c>
       <c r="K19" t="n">
-        <v>0.884722656281865</v>
+        <v>0.4427064818127368</v>
       </c>
       <c r="L19" t="n">
-        <v>1.85123789911304</v>
+        <v>1.887069158692551</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5372870409999626</v>
+        <v>0.5139223989347119</v>
       </c>
       <c r="N19" t="n">
-        <v>1.025270189247927</v>
+        <v>1.023120161092483</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5601604626728336</v>
+        <v>0.5358011394233885</v>
       </c>
       <c r="P19" t="n">
-        <v>132.4848912011206</v>
+        <v>132.66273199904</v>
       </c>
       <c r="Q19" t="n">
-        <v>211.7118198175536</v>
+        <v>211.8896606154731</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_18</t>
+          <t>model_6_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9560715020476072</v>
+        <v>0.9588634925007157</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6710065660871946</v>
+        <v>0.815742250497686</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9010027122357045</v>
+        <v>0.9570590398526992</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2746430935514587</v>
+        <v>0.9534047889351945</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8800288862995553</v>
+        <v>0.9587591623108697</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2937500680797853</v>
+        <v>0.2750800150639148</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1999806074504</v>
+        <v>1.232132419350897</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8794871349450302</v>
+        <v>0.2116743916443659</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9282683804660928</v>
+        <v>0.5626887007125362</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9038777577055616</v>
+        <v>0.387181546178451</v>
       </c>
       <c r="L20" t="n">
-        <v>1.849923691516236</v>
+        <v>2.009557680511685</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5419871475226929</v>
+        <v>0.5244807099063937</v>
       </c>
       <c r="N20" t="n">
-        <v>1.02571424270384</v>
+        <v>1.024079906828849</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5650606624607983</v>
+        <v>0.5468089395518515</v>
       </c>
       <c r="P20" t="n">
-        <v>132.4500519635257</v>
+        <v>132.5813865195371</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.6769805799587</v>
+        <v>211.8083151359702</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_19</t>
+          <t>model_6_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9553624855771148</v>
+        <v>0.9562451654133353</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6699409846491096</v>
+        <v>0.8110317709065338</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8996304877869802</v>
+        <v>0.964705514962694</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2568319984779743</v>
+        <v>0.9595800684986295</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8777071611593374</v>
+        <v>0.9647382014745136</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2984912644826883</v>
+        <v>0.2925887803535151</v>
       </c>
       <c r="H21" t="n">
-        <v>2.207106155433426</v>
+        <v>1.263631418066696</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8916779108356134</v>
+        <v>0.173981639512608</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9510619545414282</v>
+        <v>0.4881153710788724</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9213699326885209</v>
+        <v>0.3310485052957403</v>
       </c>
       <c r="L21" t="n">
-        <v>1.848848888797293</v>
+        <v>2.144795066439116</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5463435407165425</v>
+        <v>0.5409147625583121</v>
       </c>
       <c r="N21" t="n">
-        <v>1.026129276735347</v>
+        <v>1.025612586099511</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5696025163318871</v>
+        <v>0.5639426238483408</v>
       </c>
       <c r="P21" t="n">
-        <v>132.4180292225846</v>
+        <v>132.4579742715755</v>
       </c>
       <c r="Q21" t="n">
-        <v>211.6449578390177</v>
+        <v>211.6849028880086</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_20</t>
+          <t>model_6_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.954703148943747</v>
+        <v>0.9523260773301722</v>
       </c>
       <c r="C22" t="n">
-        <v>0.668963740283205</v>
+        <v>0.8047193857340624</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8983739910588713</v>
+        <v>0.9723099539327127</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2406343391946433</v>
+        <v>0.9655805094030682</v>
       </c>
       <c r="F22" t="n">
-        <v>0.875590695207904</v>
+        <v>0.9705937580501891</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3029002515859849</v>
+        <v>0.3187957404113682</v>
       </c>
       <c r="H22" t="n">
-        <v>2.213640993008026</v>
+        <v>1.305842366780873</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9028405672318504</v>
+        <v>0.1364961015261775</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9717907500028194</v>
+        <v>0.4156534115971348</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9373156586173348</v>
+        <v>0.2760747565616561</v>
       </c>
       <c r="L22" t="n">
-        <v>1.847959484163042</v>
+        <v>2.294270073688782</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5503637447960984</v>
+        <v>0.5646199964678618</v>
       </c>
       <c r="N22" t="n">
-        <v>1.026515229886587</v>
+        <v>1.027906686440875</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5737938688220794</v>
+        <v>0.5886570386420191</v>
       </c>
       <c r="P22" t="n">
-        <v>132.3887034607168</v>
+        <v>132.2864093869495</v>
       </c>
       <c r="Q22" t="n">
-        <v>211.6156320771498</v>
+        <v>211.5133380033826</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_21</t>
+          <t>model_6_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9540926291965433</v>
+        <v>0.946694043528479</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6680693592351123</v>
+        <v>0.7963649687295392</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8972259423798292</v>
+        <v>0.9797022429991403</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2259207444755001</v>
+        <v>0.9710692506113945</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8736642090526088</v>
+        <v>0.9760645211101655</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3069827999467207</v>
+        <v>0.3564571763764215</v>
       </c>
       <c r="H23" t="n">
-        <v>2.219621723194868</v>
+        <v>1.361708391758673</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9130397763850561</v>
+        <v>0.1000563413152332</v>
       </c>
       <c r="J23" t="n">
-        <v>0.990620328406706</v>
+        <v>0.3493707918067661</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9518300523958811</v>
+        <v>0.2247135665609996</v>
       </c>
       <c r="L23" t="n">
-        <v>1.847229201271863</v>
+        <v>2.459887391076622</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5540602854804888</v>
+        <v>0.5970403473605629</v>
       </c>
       <c r="N23" t="n">
-        <v>1.026872607299584</v>
+        <v>1.031203486715037</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5776477788962984</v>
+        <v>0.6224575909916007</v>
       </c>
       <c r="P23" t="n">
-        <v>132.3619271183933</v>
+        <v>132.0630823374187</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.5888557348263</v>
+        <v>211.2900109538517</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_22</t>
+          <t>model_6_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9535291162758239</v>
+        <v>0.9388258758711717</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6672524429180728</v>
+        <v>0.7854226633255177</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8961783466611088</v>
+        <v>0.9866314810967698</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2125665852411293</v>
+        <v>0.9756080602976401</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8719124042530544</v>
+        <v>0.9808027743708068</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3107510134423099</v>
+        <v>0.4090716497304159</v>
       </c>
       <c r="H24" t="n">
-        <v>2.225084446368465</v>
+        <v>1.434879638380048</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9223465662784496</v>
+        <v>0.06589915773472388</v>
       </c>
       <c r="J24" t="n">
-        <v>1.007710182594032</v>
+        <v>0.2945596456230301</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9650283744362411</v>
+        <v>0.180229401678877</v>
       </c>
       <c r="L24" t="n">
-        <v>1.846628677981368</v>
+        <v>2.644159755404621</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5574504582851376</v>
+        <v>0.6395870931549634</v>
       </c>
       <c r="N24" t="n">
-        <v>1.027202468521469</v>
+        <v>1.035809243392485</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5811822783758663</v>
+        <v>0.6668156398383746</v>
       </c>
       <c r="P24" t="n">
-        <v>132.3375265746362</v>
+        <v>131.7877299111342</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.5644551910692</v>
+        <v>211.0146585275672</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_23</t>
+          <t>model_6_5_0</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9530107406373389</v>
+        <v>0.9280626618750708</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6665075290038629</v>
+        <v>0.7712187762368143</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8952244815591429</v>
+        <v>0.992717264097587</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2004575364914142</v>
+        <v>0.9786552787198183</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8703215855005021</v>
+        <v>0.9843602837965005</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3142173937237593</v>
+        <v>0.4810453112823863</v>
       </c>
       <c r="H25" t="n">
-        <v>2.2300656891428</v>
+        <v>1.529861096745094</v>
       </c>
       <c r="I25" t="n">
-        <v>0.930820657888408</v>
+        <v>0.03589972572485115</v>
       </c>
       <c r="J25" t="n">
-        <v>1.023206618861412</v>
+        <v>0.2577611134224148</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9770138069509646</v>
+        <v>0.1468304195736329</v>
       </c>
       <c r="L25" t="n">
-        <v>1.846137297890798</v>
+        <v>2.850387410006976</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5605509733501132</v>
+        <v>0.6935743011980665</v>
       </c>
       <c r="N25" t="n">
-        <v>1.027505907919606</v>
+        <v>1.042109661341422</v>
       </c>
       <c r="O25" t="n">
-        <v>0.584414788786109</v>
+        <v>0.7231011950967996</v>
       </c>
       <c r="P25" t="n">
-        <v>132.315340391857</v>
+        <v>131.4635876221257</v>
       </c>
       <c r="Q25" t="n">
-        <v>211.54226900829</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_6_5_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9525350234190779</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6658291984109541</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.8943564961260667</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1894887482677472</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.868878286293945</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.3173985169527465</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.234601688941006</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.9385317986575146</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.037243817914098</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.9878878082858061</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.845732082648182</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.5633813246396676</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.027784376535174</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.5873656339896945</v>
-      </c>
-      <c r="P26" t="n">
-        <v>132.2951942867747</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>211.5221229032078</v>
+        <v>210.6905162385587</v>
       </c>
     </row>
   </sheetData>
